--- a/sputnik/personal/uch/uch270.xlsx
+++ b/sputnik/personal/uch/uch270.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Оплата за пользование инфраструктурой с 01.05.2019 по 30.04.2020</t>
+  </si>
+  <si>
+    <t>Дата</t>
   </si>
 </sst>
 </file>
@@ -197,12 +200,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,7 +519,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D7:D15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -529,9 +534,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16"/>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -540,7 +547,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -552,7 +559,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>43221</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -564,7 +571,7 @@
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+      <c r="A5" s="16">
         <v>43221</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -576,7 +583,7 @@
       <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>43221</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -588,7 +595,7 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+      <c r="A7" s="16">
         <v>43302</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -600,7 +607,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>43337</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -612,7 +619,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+      <c r="A9" s="16">
         <v>43366</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -624,7 +631,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+      <c r="A10" s="16">
         <v>43393</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -636,7 +643,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <v>43407</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -648,7 +655,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="17">
         <v>43586</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -660,7 +667,7 @@
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+      <c r="A13" s="16">
         <v>43644</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -672,7 +679,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>43711</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -684,7 +691,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
+      <c r="A15" s="16">
         <v>43745</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -702,9 +709,6 @@
       <c r="D17" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>

--- a/sputnik/personal/uch/uch270.xlsx
+++ b/sputnik/personal/uch/uch270.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,13 +49,16 @@
   </si>
   <si>
     <t>Дата</t>
+  </si>
+  <si>
+    <t>Начислен взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,7 +199,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -209,6 +211,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -269,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,10 +304,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,7 +338,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -512,17 +513,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -531,12 +532,12 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -546,8 +547,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+    <row r="3" spans="1:4" ht="20.25" customHeight="1">
+      <c r="A3" s="15">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -558,8 +559,8 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A4" s="15">
         <v>43221</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -570,8 +571,8 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+    <row r="5" spans="1:4" ht="18" customHeight="1">
+      <c r="A5" s="15">
         <v>43221</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -582,8 +583,8 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+    <row r="6" spans="1:4" ht="18" customHeight="1">
+      <c r="A6" s="15">
         <v>43221</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -594,8 +595,8 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+    <row r="7" spans="1:4" ht="18" customHeight="1">
+      <c r="A7" s="15">
         <v>43302</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -606,8 +607,8 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+    <row r="8" spans="1:4" ht="18" customHeight="1">
+      <c r="A8" s="15">
         <v>43337</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -618,8 +619,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+    <row r="9" spans="1:4" ht="18" customHeight="1">
+      <c r="A9" s="15">
         <v>43366</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -630,8 +631,8 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+    <row r="10" spans="1:4" ht="18" customHeight="1">
+      <c r="A10" s="15">
         <v>43393</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -642,8 +643,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+    <row r="11" spans="1:4" ht="18" customHeight="1">
+      <c r="A11" s="15">
         <v>43407</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -654,8 +655,8 @@
         <v>175.21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+    <row r="12" spans="1:4">
+      <c r="A12" s="16">
         <v>43586</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -666,8 +667,8 @@
       </c>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+    <row r="13" spans="1:4">
+      <c r="A13" s="15">
         <v>43644</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -678,8 +679,8 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+    <row r="14" spans="1:4">
+      <c r="A14" s="15">
         <v>43711</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -690,8 +691,8 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+    <row r="15" spans="1:4">
+      <c r="A15" s="15">
         <v>43745</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -702,11 +703,35 @@
         <v>1143.53</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="14"/>
+    <row r="16" spans="1:4">
+      <c r="A16" s="18">
+        <v>43952</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="13">
+        <v>10040.6</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -716,12 +741,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -730,12 +755,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch270.xlsx
+++ b/sputnik/personal/uch/uch270.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9780"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,13 +52,16 @@
   </si>
   <si>
     <t>Начислен взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Оплата за пользование инфраструктурой с 01.05.2020 по 30.04.2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,7 +275,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -304,9 +307,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,6 +342,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -513,17 +518,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.7109375" style="1" customWidth="1"/>
@@ -532,8 +537,8 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1"/>
-    <row r="2" spans="1:4" ht="27" customHeight="1">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -547,7 +552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.25" customHeight="1">
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>43221</v>
       </c>
@@ -559,7 +564,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" customHeight="1">
+    <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>43221</v>
       </c>
@@ -571,7 +576,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1">
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>43221</v>
       </c>
@@ -583,7 +588,7 @@
       </c>
       <c r="D5" s="8"/>
     </row>
-    <row r="6" spans="1:4" ht="18" customHeight="1">
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>43221</v>
       </c>
@@ -595,7 +600,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="18" customHeight="1">
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>43302</v>
       </c>
@@ -607,7 +612,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18" customHeight="1">
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>43337</v>
       </c>
@@ -619,7 +624,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18" customHeight="1">
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>43366</v>
       </c>
@@ -631,7 +636,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18" customHeight="1">
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>43393</v>
       </c>
@@ -643,7 +648,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" customHeight="1">
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>43407</v>
       </c>
@@ -655,7 +660,7 @@
         <v>175.21</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>43586</v>
       </c>
@@ -667,7 +672,7 @@
       </c>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>43644</v>
       </c>
@@ -679,7 +684,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>43711</v>
       </c>
@@ -691,7 +696,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>43745</v>
       </c>
@@ -703,7 +708,7 @@
         <v>1143.53</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>43952</v>
       </c>
@@ -715,19 +720,25 @@
       </c>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="18"/>
-      <c r="B17" s="13"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>44069</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="13">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -741,12 +752,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -755,12 +766,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/uch/uch270.xlsx
+++ b/sputnik/personal/uch/uch270.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>Оплачено</t>
   </si>
@@ -525,7 +525,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -733,10 +733,16 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="18">
+        <v>44106</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="13">
+        <v>3540.6</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>

--- a/sputnik/personal/uch/uch270.xlsx
+++ b/sputnik/personal/uch/uch270.xlsx
@@ -78,7 +78,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,7 +87,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -169,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -184,12 +196,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -200,7 +206,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,6 +220,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -525,7 +543,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -539,10 +557,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -553,202 +571,202 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="12">
         <v>43221</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="8">
         <v>296.68</v>
       </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="12">
         <v>43221</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <v>368</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="12">
         <v>43221</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>2804.69</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="12">
         <v>43221</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="22">
         <v>9275.2099999999991</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="12">
         <v>43302</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22">
         <v>4500</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="12">
         <v>43337</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22">
         <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="12">
         <v>43366</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22">
         <v>3000</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="12">
         <v>43393</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22">
         <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="12">
         <v>43407</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22">
         <v>175.21</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="13">
         <v>43586</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="17">
         <v>9143.5300000000007</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="12">
         <v>43644</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="7">
+      <c r="C13" s="18"/>
+      <c r="D13" s="19">
         <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="A14" s="12">
         <v>43711</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="12">
+      <c r="C14" s="18"/>
+      <c r="D14" s="20">
         <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="A15" s="12">
         <v>43745</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="13">
+      <c r="C15" s="18"/>
+      <c r="D15" s="21">
         <v>1143.53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="15">
         <v>43952</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="16">
         <v>10040.6</v>
       </c>
-      <c r="D16" s="13"/>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="15">
         <v>44069</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16">
         <v>6500</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="15">
         <v>44106</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16">
         <v>3540.6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch270.xlsx
+++ b/sputnik/personal/uch/uch270.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Оплата за пользование инфраструктурой с 01.05.2020 по 30.04.2021</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -542,8 +545,8 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -763,9 +766,15 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="15">
+        <v>44317</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="10">
+        <v>10723.69</v>
+      </c>
       <c r="D19" s="10"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch270.xlsx
+++ b/sputnik/personal/uch/uch270.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t>Оплата членского взноса</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -776,6 +779,36 @@
         <v>10723.69</v>
       </c>
       <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
+        <v>44398</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch270.xlsx
+++ b/sputnik/personal/uch/uch270.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Оплачено</t>
   </si>
@@ -549,7 +549,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -793,10 +793,16 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
+      <c r="A21" s="15">
+        <v>44433</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="D21" s="9">
+        <v>723.69</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
